--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF8036D-FF38-4E09-AE1E-6D430B6A70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D38216-D104-4CD6-BE20-71A5FA525CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="PE 005 B" sheetId="1" r:id="rId1"/>
+    <sheet name="PE 005" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -439,7 +439,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D38216-D104-4CD6-BE20-71A5FA525CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5632F2-C281-481E-B83E-9B81C585FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +462,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,13 +491,13 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
-        <f>MAX( _xlfn.SCAN(1, _xlfn.SEQUENCE(B5), _xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v))) )</f>
+      <c r="B6" s="2" cm="1">
+        <f t="array" ref="B6">_xlfn.REDUCE(1,_xlfn.SEQUENCE(B5),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
         <v>2520</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <f>MAX( _xlfn.SCAN(1, _xlfn.SEQUENCE(D5), _xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v))) )</f>
+      <c r="D6" s="4" cm="1">
+        <f t="array" ref="D6">_xlfn.REDUCE(1,_xlfn.SEQUENCE(D5),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
         <v>232792560</v>
       </c>
       <c r="E6" t="s">

--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5632F2-C281-481E-B83E-9B81C585FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E825A-22C5-425B-9F69-4F9AE52BA19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Project Euler 5: Smallest Multiple</t>
   </si>
@@ -66,7 +66,16 @@
     <t>&lt;-- answer</t>
   </si>
   <si>
-    <t>with array formulas</t>
+    <t>1) Recursion</t>
+  </si>
+  <si>
+    <t>2) Tail-call recursion</t>
+  </si>
+  <si>
+    <t>3) With array formulas</t>
+  </si>
+  <si>
+    <t>4) Spreadsheets capabilities</t>
   </si>
 </sst>
 </file>
@@ -76,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +97,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,12 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4AECE-9570-4B27-85EC-0ACE3D221670}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,36 +501,225 @@
     <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" cm="1">
-        <f t="array" ref="B6">_xlfn.REDUCE(1,_xlfn.SEQUENCE(B5),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" cm="1">
+        <f t="array" ref="B7">_xlfn.LET(
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N,IF(_xlpm.N=1,1,LCM(_xlpm.N,_xlpm.ME(_xlpm.ME,_xlpm.N-1)))),
+_xlpm.SUB(_xlpm.SUB,B6))</f>
         <v>2520</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" cm="1">
-        <f t="array" ref="D6">_xlfn.REDUCE(1,_xlfn.SEQUENCE(D5),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" cm="1">
+        <f t="array" ref="D7">_xlfn.LET(
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N,IF(_xlpm.N=1,1,LCM(_xlpm.N,_xlpm.ME(_xlpm.ME,_xlpm.N-1)))),
+_xlpm.SUB(_xlpm.SUB,D6))</f>
         <v>232792560</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" cm="1">
+        <f t="array" ref="B12">_xlfn.LET(
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.ACC,_xlpm.N, IF(_xlpm.N=1, _xlpm.ACC, _xlpm.ME(_xlpm.ME, LCM(_xlpm.ACC, _xlpm.N), _xlpm.N-1))),
+_xlpm.SUB(_xlpm.SUB,1,B11))</f>
+        <v>2520</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" cm="1">
+        <f t="array" ref="D12">_xlfn.LET(
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.ACC,_xlpm.N, IF(_xlpm.N=1, _xlpm.ACC, _xlpm.ME(_xlpm.ME, LCM(_xlpm.ACC, _xlpm.N), _xlpm.N-1))),
+_xlpm.SUB(_xlpm.SUB,1,D11))</f>
+        <v>232792560</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" cm="1">
+        <f t="array" ref="B17">_xlfn.REDUCE(1,_xlfn.SEQUENCE(B16),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+        <v>2520</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" cm="1">
+        <f t="array" ref="D17">_xlfn.REDUCE(1,_xlfn.SEQUENCE(D16),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+        <v>232792560</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <f>LCM(B21:B40)</f>
+        <v>232792560</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E825A-22C5-425B-9F69-4F9AE52BA19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D461F39-7D3B-4993-AD8E-F6B0F191BC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Project Euler 5: Smallest Multiple</t>
   </si>
@@ -77,6 +77,36 @@
   <si>
     <t>4) Spreadsheets capabilities</t>
   </si>
+  <si>
+    <t>2520 is the smallest number that can be divided by each of the numbers from 1 to 10 without any remainder.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the smallest positive number that is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evenly divisible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by all of the numbers from 1 to 20?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +147,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -144,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,6 +200,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4AECE-9570-4B27-85EC-0ACE3D221670}">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
@@ -506,219 +553,233 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" cm="1">
-        <f t="array" ref="B7">_xlfn.LET(
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" cm="1">
+        <f t="array" ref="B10">_xlfn.LET(
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N,IF(_xlpm.N=1,1,LCM(_xlpm.N,_xlpm.ME(_xlpm.ME,_xlpm.N-1)))),
-_xlpm.SUB(_xlpm.SUB,B6))</f>
+_xlpm.SUB(_xlpm.SUB,B9))</f>
         <v>2520</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" cm="1">
-        <f t="array" ref="D7">_xlfn.LET(
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" cm="1">
+        <f t="array" ref="D10">_xlfn.LET(
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N,IF(_xlpm.N=1,1,LCM(_xlpm.N,_xlpm.ME(_xlpm.ME,_xlpm.N-1)))),
-_xlpm.SUB(_xlpm.SUB,D6))</f>
+_xlpm.SUB(_xlpm.SUB,D9))</f>
         <v>232792560</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" cm="1">
-        <f t="array" ref="B12">_xlfn.LET(
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" cm="1">
+        <f t="array" ref="B15">_xlfn.LET(
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.ACC,_xlpm.N, IF(_xlpm.N=1, _xlpm.ACC, _xlpm.ME(_xlpm.ME, LCM(_xlpm.ACC, _xlpm.N), _xlpm.N-1))),
-_xlpm.SUB(_xlpm.SUB,1,B11))</f>
+_xlpm.SUB(_xlpm.SUB,1,B14))</f>
         <v>2520</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" cm="1">
-        <f t="array" ref="D12">_xlfn.LET(
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" cm="1">
+        <f t="array" ref="D15">_xlfn.LET(
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.ACC,_xlpm.N, IF(_xlpm.N=1, _xlpm.ACC, _xlpm.ME(_xlpm.ME, LCM(_xlpm.ACC, _xlpm.N), _xlpm.N-1))),
-_xlpm.SUB(_xlpm.SUB,1,D11))</f>
+_xlpm.SUB(_xlpm.SUB,1,D14))</f>
         <v>232792560</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
+    <row r="17" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" cm="1">
-        <f t="array" ref="B17">_xlfn.REDUCE(1,_xlfn.SEQUENCE(B16),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" cm="1">
+        <f t="array" ref="B20">_xlfn.REDUCE(1,_xlfn.SEQUENCE(B19),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
         <v>2520</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" cm="1">
-        <f t="array" ref="D17">_xlfn.REDUCE(1,_xlfn.SEQUENCE(D16),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" cm="1">
+        <f t="array" ref="D20">_xlfn.REDUCE(1,_xlfn.SEQUENCE(D19),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
         <v>232792560</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
+    <row r="22" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <f>LCM(B21:B40)</f>
-        <v>232792560</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <f>LCM(B24:B43)</f>
+        <v>232792560</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43">
         <v>20</v>
       </c>
     </row>

--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D461F39-7D3B-4993-AD8E-F6B0F191BC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C7588-5585-4931-8F35-E2293507DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Project Euler 5: Smallest Multiple</t>
   </si>
@@ -87,6 +87,7 @@
     <r>
       <rPr>
         <b/>
+        <i/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -98,6 +99,7 @@
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -107,6 +109,9 @@
       <t xml:space="preserve"> by all of the numbers from 1 to 20?</t>
     </r>
   </si>
+  <si>
+    <t>https://projecteuler.net/problem=5</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +153,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -156,9 +162,18 @@
     </font>
     <font>
       <b/>
+      <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,9 +216,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -219,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4AECE-9570-4B27-85EC-0ACE3D221670}">
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
@@ -556,234 +574,242 @@
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="2:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" cm="1">
-        <f t="array" ref="B10">_xlfn.LET(
-_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N,IF(_xlpm.N=1,1,LCM(_xlpm.N,_xlpm.ME(_xlpm.ME,_xlpm.N-1)))),
-_xlpm.SUB(_xlpm.SUB,B9))</f>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" cm="1">
+        <f t="array" ref="B11">_xlfn.LET(
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N, IF(_xlpm.N=1, 1, LCM(_xlpm.N, _xlpm.ME(_xlpm.ME, _xlpm.N-1)))),
+_xlpm.SUB(_xlpm.SUB, B10))</f>
         <v>2520</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" cm="1">
-        <f t="array" ref="D10">_xlfn.LET(
-_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N,IF(_xlpm.N=1,1,LCM(_xlpm.N,_xlpm.ME(_xlpm.ME,_xlpm.N-1)))),
-_xlpm.SUB(_xlpm.SUB,D9))</f>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" cm="1">
+        <f t="array" ref="D11">_xlfn.LET(
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.N, IF(_xlpm.N=1, 1, LCM(_xlpm.N, _xlpm.ME(_xlpm.ME, _xlpm.N-1)))),
+_xlpm.SUB(_xlpm.SUB, D10))</f>
         <v>232792560</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" cm="1">
-        <f t="array" ref="B15">_xlfn.LET(
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" cm="1">
+        <f t="array" ref="B16">_xlfn.LET(
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.ACC,_xlpm.N, IF(_xlpm.N=1, _xlpm.ACC, _xlpm.ME(_xlpm.ME, LCM(_xlpm.ACC, _xlpm.N), _xlpm.N-1))),
-_xlpm.SUB(_xlpm.SUB,1,B14))</f>
+_xlpm.SUB(_xlpm.SUB, 1, B15))</f>
         <v>2520</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" cm="1">
-        <f t="array" ref="D15">_xlfn.LET(
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" cm="1">
+        <f t="array" ref="D16">_xlfn.LET(
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.ME,_xlpm.ACC,_xlpm.N, IF(_xlpm.N=1, _xlpm.ACC, _xlpm.ME(_xlpm.ME, LCM(_xlpm.ACC, _xlpm.N), _xlpm.N-1))),
-_xlpm.SUB(_xlpm.SUB,1,D14))</f>
+_xlpm.SUB(_xlpm.SUB, 1, D15))</f>
         <v>232792560</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" cm="1">
-        <f t="array" ref="B20">_xlfn.REDUCE(1,_xlfn.SEQUENCE(B19),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" cm="1">
+        <f t="array" ref="B21">_xlfn.REDUCE(1, _xlfn.SEQUENCE(B20), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, LCM(_xlpm.a,_xlpm.v)))</f>
         <v>2520</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" cm="1">
-        <f t="array" ref="D20">_xlfn.REDUCE(1,_xlfn.SEQUENCE(D19),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,LCM(_xlpm.a,_xlpm.v)))</f>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" cm="1">
+        <f t="array" ref="D21">_xlfn.REDUCE(1, _xlfn.SEQUENCE(D20), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, LCM(_xlpm.a,_xlpm.v)))</f>
         <v>232792560</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <f>LCM(B24:B43)</f>
-        <v>232792560</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <f>LCM(B25:B44)</f>
+        <v>232792560</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{81580398-1EE1-4463-BFFB-46EC2EE619FF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C7588-5585-4931-8F35-E2293507DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62831B-D2BB-4A73-A443-1EA201DCCD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,24 +58,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Project Euler 5: Smallest Multiple</t>
   </si>
   <si>
     <t>&lt;-- answer</t>
-  </si>
-  <si>
-    <t>1) Recursion</t>
-  </si>
-  <si>
-    <t>2) Tail-call recursion</t>
-  </si>
-  <si>
-    <t>3) With array formulas</t>
-  </si>
-  <si>
-    <t>4) Spreadsheets capabilities</t>
   </si>
   <si>
     <t>2520 is the smallest number that can be divided by each of the numbers from 1 to 10 without any remainder.</t>
@@ -111,6 +99,21 @@
   </si>
   <si>
     <t>https://projecteuler.net/problem=5</t>
+  </si>
+  <si>
+    <t>1) One-liner based on recursion</t>
+  </si>
+  <si>
+    <t>2) One-liner based on tail-call recursion</t>
+  </si>
+  <si>
+    <t>3) One-liner based on array formulas</t>
+  </si>
+  <si>
+    <t>4) Use of spreadsheets capabilities</t>
+  </si>
+  <si>
+    <t>(end)</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4AECE-9570-4B27-85EC-0ACE3D221670}">
-  <dimension ref="B2:E44"/>
+  <dimension ref="B2:E46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,23 +579,23 @@
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
@@ -631,7 +634,7 @@
     </row>
     <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -669,7 +672,7 @@
     </row>
     <row r="18" spans="2:5" ht="16" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -696,7 +699,7 @@
     </row>
     <row r="23" spans="2:5" ht="16" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -804,6 +807,11 @@
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project Euler 005.xlsx
+++ b/Project Euler 005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B62831B-D2BB-4A73-A443-1EA201DCCD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B73297B-9643-4ED1-8689-55792A5A041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D300F1E4-C82C-4AA2-99EB-33BA141A7AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Project Euler 5: Smallest Multiple</t>
   </si>
@@ -107,13 +107,16 @@
     <t>2) One-liner based on tail-call recursion</t>
   </si>
   <si>
-    <t>3) One-liner based on array formulas</t>
-  </si>
-  <si>
-    <t>4) Use of spreadsheets capabilities</t>
-  </si>
-  <si>
     <t>(end)</t>
+  </si>
+  <si>
+    <t>4) One-liner based on array formulas</t>
+  </si>
+  <si>
+    <t>5) Use of spreadsheets capabilities</t>
+  </si>
+  <si>
+    <t>3) One-liner converting recursion into SEQUENCE+REDUCE</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4AECE-9570-4B27-85EC-0ACE3D221670}">
-  <dimension ref="B2:E46"/>
+  <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,10 +673,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
     <row r="18" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
@@ -685,133 +700,165 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2" cm="1">
-        <f t="array" ref="B21">_xlfn.REDUCE(1, _xlfn.SEQUENCE(B20), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, LCM(_xlpm.a,_xlpm.v)))</f>
+        <f t="array" ref="B21" xml:space="preserve"> _xlfn.REDUCE( 1, _xlfn.SEQUENCE(B20), _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N, LCM(_xlpm.ACC,_xlpm.N)))</f>
         <v>2520</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" cm="1">
-        <f t="array" ref="D21">_xlfn.REDUCE(1, _xlfn.SEQUENCE(D20), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, LCM(_xlpm.a,_xlpm.v)))</f>
+        <f t="array" ref="D21" xml:space="preserve"> _xlfn.REDUCE( 1, _xlfn.SEQUENCE(D20), _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N, LCM(_xlpm.ACC,_xlpm.N)))</f>
         <v>232792560</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
     <row r="23" spans="2:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25">
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" cm="1">
+        <f t="array" ref="B26">_xlfn.REDUCE(1, _xlfn.SEQUENCE(B25), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, LCM(_xlpm.a,_xlpm.v)))</f>
+        <v>2520</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" cm="1">
+        <f t="array" ref="D26">_xlfn.REDUCE(1, _xlfn.SEQUENCE(D25), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, LCM(_xlpm.a,_xlpm.v)))</f>
+        <v>232792560</v>
+      </c>
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <f>LCM(B25:B44)</f>
-        <v>232792560</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>5</v>
+    </row>
+    <row r="28" spans="2:5" ht="16" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <f>LCM(B30:B49)</f>
+        <v>232792560</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="4" t="s">
-        <v>9</v>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
